--- a/로스트아크/데이터테이블/Tripod_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Tripod_Table(수정중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B752311A-7BAA-448F-80BD-537E4C235771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B380CDF-10AE-4537-A4CF-F109653DD299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,79 +91,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라이포드 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">트라이포드 티어&amp;번호
-10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 1티어 첫 번째 트라이포드 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 1티어 두 번째 트라이포드 //</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 1티어 세 번째 트라이포드</t>
-    </r>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이포드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이포드 아이콘 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 감소 - 3티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간 감소 - 2티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이포드의 효과 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -515,13 +475,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +592,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,6 +633,18 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:H77"/>
+  <dimension ref="B1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -971,7 +990,7 @@
     <col min="3" max="3" width="5.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.09765625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="63.09765625" style="24" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="3"/>
@@ -979,11 +998,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -1005,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
@@ -1035,27 +1054,21 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>16</v>
+      <c r="F7" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -1063,48 +1076,64 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F15" s="26"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C16" s="2"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
-      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
-      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
@@ -1270,6 +1299,9 @@
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1286,49 +1318,49 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.8984375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="25.8984375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="31" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.8984375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="15.69921875" style="33" customWidth="1"/>
-    <col min="9" max="11" width="15.69921875" style="34" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" style="33" customWidth="1"/>
-    <col min="15" max="18" width="15.69921875" style="34" customWidth="1"/>
-    <col min="19" max="22" width="18.69921875" style="33" customWidth="1"/>
+    <col min="7" max="8" width="15.69921875" style="32" customWidth="1"/>
+    <col min="9" max="11" width="15.69921875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" style="32" customWidth="1"/>
+    <col min="15" max="18" width="15.69921875" style="33" customWidth="1"/>
+    <col min="19" max="22" width="18.69921875" style="32" customWidth="1"/>
     <col min="23" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -1337,52 +1369,58 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1391,16 +1429,16 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1409,16 +1447,16 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1427,40 +1465,40 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1469,112 +1507,112 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1583,40 +1621,40 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
